--- a/mapping/mapI2SColumnNames.xlsx
+++ b/mapping/mapI2SColumnNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_project\OpenLogic\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957DEF9B-6164-4F0D-9B36-1EC432607475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369CDD9-CBD1-4607-B393-877AB6F971D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24180" yWindow="1080" windowWidth="17280" windowHeight="9960" xr2:uid="{BEC7F757-FF3E-4E21-A1C7-B71AFFB18E08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BEC7F757-FF3E-4E21-A1C7-B71AFFB18E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3176383-67EB-4BBA-A9EC-44ACF360F726}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
